--- a/Excel/Herman/2022.05.11/Packing list_2022.05.11.xlsx
+++ b/Excel/Herman/2022.05.11/Packing list_2022.05.11.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01D9893-68CD-4DB9-9898-348ABC28D14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B259F03-78D8-49E6-814F-659DEE55E9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Курс" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4800" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4798" uniqueCount="281">
   <si>
     <t>Q</t>
   </si>
@@ -10005,8 +10005,8 @@
   <sheetPr codeName="Лист6"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10038,9 +10038,7 @@
       <c r="B3" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>187</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -10087,9 +10085,6 @@
         <v>176</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" t="s">
         <v>187</v>
       </c>
     </row>
@@ -10105,7 +10100,7 @@
   </sheetPr>
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -15600,8 +15595,8 @@
   </sheetPr>
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23858,7 +23853,7 @@
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="X9" sqref="X9"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
